--- a/biology/Médecine/District_hospitalier_de_Pirkanmaa/District_hospitalier_de_Pirkanmaa.xlsx
+++ b/biology/Médecine/District_hospitalier_de_Pirkanmaa/District_hospitalier_de_Pirkanmaa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le District hospitalier de Pirkanmaa (finnois : Pirkanmaan sairaanhoitopiiri, sigle PSHP) est un district hospitalier de la région du Pirkanmaa[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le District hospitalier de Pirkanmaa (finnois : Pirkanmaan sairaanhoitopiiri, sigle PSHP) est un district hospitalier de la région du Pirkanmaa,.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le district hospitalier de Pirkanmaa offre ses services de santé à environ 900 000 habitants.
 Chaque année, il assure les soins à près de 210 000 patients. 
 Le district emploie près de 9 000 professionnels de santé.
-Les hôpitaux du district disposent de 1 142 lits[1].
+Les hôpitaux du district disposent de 1 142 lits.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des municipalités membres de PSHP est[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des municipalités membres de PSHP est:
 Akaa
 Hämeenkyrö
 Ikaalinen
@@ -599,15 +615,17 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les établissements hospitaliers de PSHP sont les établissements de Tays[1],[2]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les établissements hospitaliers de PSHP sont les établissements de Tays,:
 Tays Hôpital central universitaire, Tampere
 Tays Hôpital de Hatanpää, Tampere
 Tays Hôpital de Sastamala, Sastamala
 Tays Hôpital de Valkeakoski, Valkeakoski
 Tays Hôpital de Pitkäniemi, Nokia
-Tays Hôpital de cardiologie, Tampere[3],</t>
+Tays Hôpital de cardiologie, Tampere,</t>
         </is>
       </c>
     </row>
